--- a/biology/Botanique/Parc_botanique_de_Palanga/Parc_botanique_de_Palanga.xlsx
+++ b/biology/Botanique/Parc_botanique_de_Palanga/Parc_botanique_de_Palanga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Parc botanique de Palanga (lituanien : Palangos botanikos parkas) est un jardin botanique et arboretum situé à Palanga en Lituanie.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« En 1897, à la demande du comte Tyszkiewicz[1], le paysagiste français Édouard André acclimate autour de ses plans d’eau des plantes de France et d’Allemagne. »[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« En 1897, à la demande du comte Tyszkiewicz, le paysagiste français Édouard André acclimate autour de ses plans d’eau des plantes de France et d’Allemagne. »
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Spécificités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>18 km de chemins pour piétons et cyclistes
-500 essences odorantes[3]</t>
+500 essences odorantes</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,9 @@
           <t>Photos du parc botanique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Eglė, la reine des serpents. Statue du parc botanique de Palanga. Sculpteur : Robertas Antinis
